--- a/dados/portfolio.xlsx
+++ b/dados/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\asotech\atomo\pythonProject\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\asotech\portfolio_atomo\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE95A3E-0AFA-4651-9DFD-36E192BDCCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228CCDAF-089C-4AE0-B75B-47AD050DDB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>empresa</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,23 +459,6 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.8</v>
-      </c>
-      <c r="C5">
-        <v>153</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45292</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45797</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -485,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68D262-02E9-4FF7-84F4-5284E4B5DD82}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C32:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
